--- a/Master (1).xlsx
+++ b/Master (1).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BE0CF-C170-4162-B0EF-911BC49AA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Material_type_import" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="TypeOfProduction" sheetId="9" r:id="rId14"/>
     <sheet name="Products_import" sheetId="5" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -297,11 +296,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,18 +317,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -348,28 +352,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,97 +672,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
         <v>2.8E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E3DC4F-F9A7-4009-A023-2E84D599741B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,55 +772,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B6">
+  <sortState ref="A1:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -806,11 +828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D9FA28-7998-4B8B-A0CD-4556C653E3B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,55 +841,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,47 +910,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B5">
+  <sortState ref="B2:B5">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C4" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,76 +973,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>LOOKUP(B2,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>2.35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>LOOKUP(B3,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>5.15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>LOOKUP(B4,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>4.34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>LOOKUP(B5,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>1.5</v>
       </c>
     </row>
@@ -1030,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,47 +1065,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
+  <sortState ref="A2:B5">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,150 +1131,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>LOOKUP(B2,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>LOOKUP(D2,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>8758385</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="9">
         <v>4456.8999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>LOOKUP(B3,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>LOOKUP(D3,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8858958</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <v>7330.99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>LOOKUP(B4,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>LOOKUP(D4,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>7750282</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <v>1799.33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>LOOKUP(B5,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>LOOKUP(D5,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>7028748</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <v>3890.41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>LOOKUP(B6,TypeOfProduction!$B$2:$B$5,TypeOfProduction!$A$2:$A$5)</f>
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>LOOKUP(D6,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5012543</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <v>5450.59</v>
       </c>
     </row>
@@ -1262,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,55 +1297,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1331,11 +1353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,55 +1366,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+  <sortState ref="B2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,11 +1422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G17"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,425 +1441,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>LOOKUP(B2,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>LOOKUP(D2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>15500</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>45008</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>LOOKUP(B3,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f>LOOKUP(D3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>12350</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>45278</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>LOOKUP(B4,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f>LOOKUP(D4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>37400</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>45450</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>LOOKUP(B5,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f>LOOKUP(D5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>35000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>44897</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>LOOKUP(B6,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f>LOOKUP(D6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>1250</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>45063</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>LOOKUP(B7,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f>LOOKUP(D7,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>1000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>45450</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f>LOOKUP(B8,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f>LOOKUP(D8,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>7550</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>45474</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f>LOOKUP(B9,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f>LOOKUP(D9,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>7250</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>44948</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f>LOOKUP(B10,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f>LOOKUP(D10,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>2500</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>45478</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>LOOKUP(B11,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f>LOOKUP(D11,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>59050</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>45005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>LOOKUP(B12,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f>LOOKUP(D12,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>37200</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>45363</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>LOOKUP(B13,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f>LOOKUP(D13,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>4500</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>45426</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>LOOKUP(B14,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f>LOOKUP(D14,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="5">
         <v>50000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>45188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>LOOKUP(B15,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f>LOOKUP(D15,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>670000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>45240</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>LOOKUP(B16,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f>LOOKUP(D16,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <v>35000</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>45397</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f>LOOKUP(B17,Production!$B$2:$B$6,Production!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f>LOOKUP(D17,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>25000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>45455</v>
       </c>
     </row>
@@ -1848,80 +1870,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>LOOKUP(B2,TypeOfPartner!$B$2:$B$5,TypeOfPartner!$A$2:$A$5)</f>
         <v>1</v>
       </c>
@@ -1929,44 +1953,44 @@
         <f>LOOKUP(C2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <f>LOOKUP(F2,Director!$B$2:$B$6,Director!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="9">
         <v>4931234567</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="1" t="str">
         <f>CONCATENATE("+7",I2)</f>
         <v>+74931234567</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>2222455179</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>LOOKUP(B3,TypeOfPartner!$B$2:$B$5,TypeOfPartner!$A$2:$A$5)</f>
         <v>3</v>
       </c>
@@ -1974,44 +1998,44 @@
         <f>LOOKUP(C3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <f>LOOKUP(F3,Director!$B$2:$B$6,Director!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="9">
         <v>9871235678</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J6" si="0">CONCATENATE("+7",I3)</f>
         <v>+79871235678</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
         <v>3333888520</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f>LOOKUP(B4,TypeOfPartner!$B$2:$B$5,TypeOfPartner!$A$2:$A$5)</f>
         <v>4</v>
       </c>
@@ -2019,44 +2043,44 @@
         <f>LOOKUP(C4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f>LOOKUP(F4,Director!$B$2:$B$6,Director!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="9">
         <v>8122233200</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+78122233200</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
         <v>4440391035</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f>LOOKUP(B5,TypeOfPartner!$B$2:$B$5,TypeOfPartner!$A$2:$A$5)</f>
         <v>2</v>
       </c>
@@ -2064,44 +2088,44 @@
         <f>LOOKUP(C5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f>LOOKUP(F5,Director!$B$2:$B$6,Director!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="9">
         <v>4442223311</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+74442223311</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
         <v>1111520857</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f>LOOKUP(B6,TypeOfPartner!$B$2:$B$5,TypeOfPartner!$A$2:$A$5)</f>
         <v>1</v>
       </c>
@@ -2109,40 +2133,40 @@
         <f>LOOKUP(C6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f>LOOKUP(F6,Director!$B$2:$B$6,Director!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="9">
         <v>9128883333</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>+79128883333</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>5552431140</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2150,11 +2174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8778C08B-111B-420F-B643-993E6B37D598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,214 +2193,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>652050</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>LOOKUP(B2,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>LOOKUP(D2,Region!$B$2:$B$6,Region!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>LOOKUP(F2,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>LOOKUP(H2,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>164500</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>LOOKUP(B3,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>LOOKUP(D3,Region!$B$2:$B$6,Region!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>LOOKUP(F3,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>LOOKUP(H3,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>188910</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>LOOKUP(B4,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>LOOKUP(D4,Region!$B$2:$B$6,Region!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>LOOKUP(F4,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>LOOKUP(H4,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>143960</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>LOOKUP(B5,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>LOOKUP(D5,Region!$B$2:$B$6,Region!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>LOOKUP(F5,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f>LOOKUP(H5,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>309500</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>LOOKUP(B6,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>LOOKUP(D6,Region!$B$2:$B$6,Region!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>LOOKUP(F6,City!$B$2:$B$6,City!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f>LOOKUP(H6,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>122</v>
       </c>
     </row>
@@ -2386,65 +2410,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB311856-6529-402A-9858-2F972E6093CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>143960</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>164500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>188910</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>309500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>652050</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+  <sortState ref="A2:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,11 +2476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE37101-D71C-46CE-B271-CF57BD828F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,55 +2489,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B6">
+  <sortState ref="A1:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,11 +2545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C69846-D6E7-4EF4-898F-DE70D55107FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,55 +2558,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B6">
+  <sortState ref="A1:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master (1).xlsx
+++ b/Master (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Material_type_import" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Тип материала</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>Street</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>vorob1@gmail.com</t>
+  </si>
+  <si>
+    <t>ivanov2@gmail.com</t>
+  </si>
+  <si>
+    <t>petrov3@gmail.com</t>
+  </si>
+  <si>
+    <t>solov4@gmail.com</t>
+  </si>
+  <si>
+    <t>stepanov5@gmail.com</t>
+  </si>
+  <si>
+    <t>vor1111</t>
+  </si>
+  <si>
+    <t>iva2222</t>
+  </si>
+  <si>
+    <t>petr3333</t>
+  </si>
+  <si>
+    <t>solo4444</t>
+  </si>
+  <si>
+    <t>step5555</t>
   </si>
 </sst>
 </file>
@@ -300,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +371,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,11 +419,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -392,8 +444,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -829,70 +883,141 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>CLEAN(C2)</f>
+        <v>vorob1@gmail.com</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D6" si="0">CLEAN(C3)</f>
+        <v>ivanov2@gmail.com</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>petrov3@gmail.com</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>solov4@gmail.com</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>stepanov5@gmail.com</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:B6">
     <sortCondition ref="B2:B6"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="vorob1@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1056,7 +1181,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -1874,7 +1999,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2303,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2313,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
